--- a/Statistical analyses/Tukey posthoc/glycosidicBond/glycosidicBond, Vegetation x Precipitation.xlsx
+++ b/Statistical analyses/Tukey posthoc/glycosidicBond/glycosidicBond, Vegetation x Precipitation.xlsx
@@ -37,16 +37,16 @@
     <t>reject</t>
   </si>
   <si>
+    <t>CSS x Ambient</t>
+  </si>
+  <si>
+    <t>CSS x Reduced</t>
+  </si>
+  <si>
     <t>Grassland x Ambient</t>
   </si>
   <si>
     <t>Grassland x Reduced</t>
-  </si>
-  <si>
-    <t>Shrub x Ambient</t>
-  </si>
-  <si>
-    <t>Shrub x Reduced</t>
   </si>
 </sst>
 </file>
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>-1.3207</v>
+        <v>-0.07439999999999999</v>
       </c>
       <c r="D2">
-        <v>0.0168</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-2.4596</v>
+        <v>-1.2134</v>
       </c>
       <c r="F2">
-        <v>-0.1817</v>
+        <v>1.0645</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,16 +464,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>-4.1294</v>
+        <v>4.1294</v>
       </c>
       <c r="D3">
         <v>0.001</v>
       </c>
       <c r="E3">
-        <v>-5.2683</v>
+        <v>2.9904</v>
       </c>
       <c r="F3">
-        <v>-2.9904</v>
+        <v>5.2683</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -487,16 +487,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-4.2038</v>
+        <v>2.8087</v>
       </c>
       <c r="D4">
         <v>0.001</v>
       </c>
       <c r="E4">
-        <v>-5.3428</v>
+        <v>1.6697</v>
       </c>
       <c r="F4">
-        <v>-3.0649</v>
+        <v>3.9477</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -510,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-2.8087</v>
+        <v>4.2038</v>
       </c>
       <c r="D5">
         <v>0.001</v>
       </c>
       <c r="E5">
-        <v>-3.9477</v>
+        <v>3.0649</v>
       </c>
       <c r="F5">
-        <v>-1.6697</v>
+        <v>5.3428</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -533,16 +533,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-2.8831</v>
+        <v>2.8831</v>
       </c>
       <c r="D6">
         <v>0.001</v>
       </c>
       <c r="E6">
-        <v>-4.0221</v>
+        <v>1.7442</v>
       </c>
       <c r="F6">
-        <v>-1.7442</v>
+        <v>4.0221</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -556,19 +556,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.07439999999999999</v>
+        <v>-1.3207</v>
       </c>
       <c r="D7">
-        <v>0.9</v>
+        <v>0.0168</v>
       </c>
       <c r="E7">
-        <v>-1.2134</v>
+        <v>-2.4596</v>
       </c>
       <c r="F7">
-        <v>1.0645</v>
+        <v>-0.1817</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
